--- a/document/test.xlsx
+++ b/document/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,16 +427,19 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -478,7 +481,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
@@ -491,7 +494,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
